--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>615793.4470980654</v>
+        <v>613905.8655816636</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348872.6606354527</v>
+        <v>191700.9564578882</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>352.7786754274493</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>11.59935843464116</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>76.71587097450795</v>
+        <v>213.9154470216035</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>210.2055150678641</v>
       </c>
       <c r="G5" t="n">
-        <v>138.866635099309</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>145.4249611444376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>20.13349987277711</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>24.72230593748977</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.165601831728204</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>36.7457132001305</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>36.59669811656352</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.0585888825484</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>101.2898147863547</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>28.46407351567291</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>112.2536425510785</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.250241677064579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>118.2422920270587</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.15603929387875</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>39.84525176087139</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>22.14609241444633</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3.780636376274565</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3016,7 +3016,7 @@
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789599</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1744.232431292459</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>1375.269914352047</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>2520.971603332393</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y2" t="n">
-        <v>2130.832271356581</v>
+        <v>2147.451536646714</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,10 +4410,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>650.638205444305</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>422.6486545462877</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.892406545185</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="C5" t="n">
-        <v>1116.929889604773</v>
+        <v>993.1781615428677</v>
       </c>
       <c r="D5" t="n">
-        <v>758.6641909980228</v>
+        <v>993.1781615428677</v>
       </c>
       <c r="E5" t="n">
-        <v>758.6641909980228</v>
+        <v>607.3899089446234</v>
       </c>
       <c r="F5" t="n">
-        <v>347.6782862084153</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.892406545185</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.892406545185</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>551.8181649141598</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>551.8181649141598</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>551.8181649141598</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>551.8181649141598</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.8181649141598</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.68094731003</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4838,16 +4838,16 @@
         <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.146705571109</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X8" t="n">
-        <v>1268.68094731003</v>
+        <v>1968.574435273556</v>
       </c>
       <c r="Y8" t="n">
-        <v>1268.68094731003</v>
+        <v>1578.435103297744</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>217.9192350259436</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>217.9192350259436</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5033,7 +5033,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>129.7384406639073</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>129.7384406639073</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>359.7015465322564</v>
       </c>
       <c r="M12" t="n">
-        <v>1387.227105931296</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.747761568914</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.501175652876</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>282.2470670630128</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1461.949908824</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1262.029898739552</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045602</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X13" t="n">
-        <v>503.0396462065429</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y13" t="n">
-        <v>282.2470670630128</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>729.7725717625765</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M15" t="n">
-        <v>1050.107891292278</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N15" t="n">
-        <v>1854.519469556429</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>688.7859813545097</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>519.8497984266028</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119727</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119727</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119727</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119727</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X16" t="n">
-        <v>870.4344461847494</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>870.4344461847494</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>327.180197328635</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M18" t="n">
-        <v>794.1790493843997</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>294.1440025502359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>294.1440025502359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>294.1440025502359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>294.1440025502359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1274.453649391366</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1050.668234180871</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>761.5395953944297</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240057</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>696.5850465240057</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>475.7924673804756</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823783</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>327.180197328635</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M21" t="n">
-        <v>1095.548343721096</v>
+        <v>813.8367190106992</v>
       </c>
       <c r="N21" t="n">
-        <v>1899.959921985247</v>
+        <v>1618.24829727485</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>2287.712058577509</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1495.633198156827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1295.713188072379</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="T22" t="n">
-        <v>1071.927772861885</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U22" t="n">
-        <v>782.7991340754431</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V22" t="n">
-        <v>782.7991340754431</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W22" t="n">
-        <v>493.3819640384826</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>265.3924131404652</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5987,16 +5987,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>493.5013994809973</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>493.5013994809973</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1297.912977745148</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O24" t="n">
-        <v>1967.376739047807</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2487.677360783555</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385.5899330013837</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>385.5899330013837</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>385.5899330013837</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>385.5899330013837</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>385.5899330013837</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6163,10 +6163,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
@@ -6175,22 +6175,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247861</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383443</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383443</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>385.5899330013837</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X25" t="n">
-        <v>385.5899330013837</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y25" t="n">
-        <v>385.5899330013837</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="26">
@@ -6221,49 +6221,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>144.6694351613689</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>270.0269952192064</v>
       </c>
       <c r="L27" t="n">
-        <v>327.180197328635</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M27" t="n">
-        <v>647.5155168583368</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N27" t="n">
-        <v>1364.414563824402</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O27" t="n">
-        <v>2033.878325127062</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>241.9805482336712</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C28" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765188</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706319</v>
+        <v>755.1831334811254</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X28" t="n">
-        <v>241.9805482336712</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y28" t="n">
-        <v>241.9805482336712</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M30" t="n">
-        <v>865.5852378527475</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N30" t="n">
-        <v>1669.996816116898</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O30" t="n">
-        <v>2339.460577419557</v>
+        <v>2274.070896127047</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163782</v>
+        <v>439.5324299542182</v>
       </c>
       <c r="C31" t="n">
-        <v>491.388826169842</v>
+        <v>326.3571123076821</v>
       </c>
       <c r="D31" t="n">
-        <v>491.388826169842</v>
+        <v>232.0013381767171</v>
       </c>
       <c r="E31" t="n">
-        <v>399.2365978688196</v>
+        <v>209.6315478590945</v>
       </c>
       <c r="F31" t="n">
-        <v>308.10751565228</v>
+        <v>209.6315478590945</v>
       </c>
       <c r="G31" t="n">
-        <v>195.6930592534714</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>101.0359160827854</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.680428981893</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652471</v>
+        <v>730.4517433652464</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652471</v>
+        <v>565.4200295030871</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,37 +6710,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>327.180197328635</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M33" t="n">
-        <v>794.1790493843997</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,10 +6856,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6920,25 +6920,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7017,25 +7017,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>865.5852378527474</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N36" t="n">
-        <v>1669.996816116898</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O36" t="n">
-        <v>2339.460577419557</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,31 +7160,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>956.4246760986771</v>
       </c>
       <c r="M39" t="n">
-        <v>417.5524109899877</v>
+        <v>956.4246760986771</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1760.836254362828</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,7 +7330,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7394,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>229.0376539332501</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>229.0376539332501</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>229.0376539332501</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>549.3729734629519</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649693</v>
@@ -7588,13 +7588,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,16 +7649,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7807,22 +7807,22 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384656</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>164.4006876018201</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>269.8813202630215</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>302.7104305462889</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11145,7 +11145,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>130.5011078984973</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>73.36765428722929</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>25.55688413566391</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>116.9569745072583</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>85.66716743252475</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>106.7141107267282</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>33.55325026999134</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>61.58968815487862</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>140.3375291694989</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>2.105225817279745</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>246.6777465757196</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>69.08461360356578</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>51.43535245944035</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-3.856914915233551e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
         <v>332374.7007770524</v>
       </c>
       <c r="F2" t="n">
-        <v>332374.7007770524</v>
+        <v>332374.7007770523</v>
       </c>
       <c r="G2" t="n">
-        <v>332374.7007770524</v>
+        <v>332374.7007770523</v>
       </c>
       <c r="H2" t="n">
+        <v>332374.7007770522</v>
+      </c>
+      <c r="I2" t="n">
         <v>332374.7007770523</v>
       </c>
-      <c r="I2" t="n">
-        <v>332374.7007770524</v>
-      </c>
       <c r="J2" t="n">
-        <v>332374.7007770524</v>
+        <v>332374.7007770522</v>
       </c>
       <c r="K2" t="n">
         <v>345798.8167434798</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="M2" t="n">
         <v>348942.7521923202</v>
       </c>
       <c r="N2" t="n">
+        <v>348942.7521923204</v>
+      </c>
+      <c r="O2" t="n">
         <v>348942.7521923202</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>348942.7521923204</v>
-      </c>
-      <c r="P2" t="n">
-        <v>348942.7521923203</v>
       </c>
     </row>
     <row r="3">
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.9068008669</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.79369057589</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758875</v>
+        <v>787.79369057589</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758514</v>
+        <v>787.7936905758887</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477238</v>
+        <v>18952.41620477241</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26482,22 +26482,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-462943.3442662525</v>
+        <v>-462943.3442662524</v>
       </c>
       <c r="C6" t="n">
         <v>127024.534948292</v>
       </c>
       <c r="D6" t="n">
-        <v>127024.5349482919</v>
+        <v>127024.534948292</v>
       </c>
       <c r="E6" t="n">
-        <v>-285560.4553391361</v>
+        <v>-285657.9144651082</v>
       </c>
       <c r="F6" t="n">
-        <v>239599.5811377599</v>
+        <v>239502.1220117877</v>
       </c>
       <c r="G6" t="n">
-        <v>239599.5811377599</v>
+        <v>239502.1220117877</v>
       </c>
       <c r="H6" t="n">
-        <v>239599.5811377598</v>
+        <v>239502.1220117875</v>
       </c>
       <c r="I6" t="n">
-        <v>239599.5811377599</v>
+        <v>239502.1220117876</v>
       </c>
       <c r="J6" t="n">
-        <v>63176.36194516689</v>
+        <v>63078.90281919457</v>
       </c>
       <c r="K6" t="n">
-        <v>186055.5867056389</v>
+        <v>186037.0929677046</v>
       </c>
       <c r="L6" t="n">
-        <v>217678.1586395317</v>
+        <v>217678.1586395316</v>
       </c>
       <c r="M6" t="n">
-        <v>93220.05020656133</v>
+        <v>93220.05020656141</v>
       </c>
       <c r="N6" t="n">
+        <v>228021.0654403986</v>
+      </c>
+      <c r="O6" t="n">
         <v>228021.0654403985</v>
       </c>
-      <c r="O6" t="n">
-        <v>228021.0654403987</v>
-      </c>
       <c r="P6" t="n">
-        <v>183858.4601375529</v>
+        <v>183858.460137553</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>29.95516623603129</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>343.0836831860418</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>209.8071273620831</v>
+        <v>72.60755131498752</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>196.6705306738473</v>
       </c>
       <c r="G5" t="n">
-        <v>274.917534921486</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.15969220765714</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>329.1074688446359</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>345.0087947409793</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>161.0812192668996</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>56.01837628787166</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31127,7 +31127,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576419</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>33.59643900668355</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31853,16 +31853,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>166.9893280749466</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31999,7 +31999,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
         <v>526.796267130444</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>280.0351660364688</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>107.9252528799045</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32099,7 +32099,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32318,31 +32318,31 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>148.1449823495585</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>388.9994826499789</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -32558,22 +32558,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>225.0728617982309</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.43593331510502</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>48.67825163038219</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>376.1397892206542</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33269,28 +33269,28 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>32.39888063626327</v>
+        <v>87.71167780314289</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,16 +33427,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33503,31 +33503,31 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>148.1449823495585</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33743,28 +33743,28 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>435.7437450400229</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>32.39888063626327</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,25 +33883,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>52.5585937102698</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>369.6935619162747</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>133.8986746322823</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -34220,7 +34220,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34229,16 +34229,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508801</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>207.3204600535046</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>32.8498476804257</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,19 +35498,19 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>351.4776893005535</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>512.3211315600538</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>431.4962827078861</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
@@ -35744,10 +35744,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>471.7160121775401</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>737.0001449101991</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>476.338936630516</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>30.42628018748988</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>127.2850758185771</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>126.5314469649326</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>47.93166030412434</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>724.1404514808744</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>216.8872418618702</v>
+        <v>272.2000390287498</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -36999,16 +36999,16 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>471.7160121775401</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>171.3687184629556</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>759.3147748680045</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>216.8872418618702</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>284.8445592338548</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>717.6942241764949</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415086</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>133.1520833060245</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111003</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>458.5865348857897</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
